--- a/20140604_emd/강원도/03_시도의원-고성군-고성군선거구.xlsx
+++ b/20140604_emd/강원도/03_시도의원-고성군-고성군선거구.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19440" windowHeight="10245"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="19440" windowHeight="10240"/>
   </bookViews>
   <sheets>
     <sheet name="고성군선거구" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,15 +133,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -145,14 +150,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -161,7 +166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -197,16 +202,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,26 +221,37 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -248,12 +264,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,98 +557,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
@@ -654,147 +667,171 @@
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="1">
-        <f>C7+C8+C9+C12+C15+C18+C21+C24</f>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1">
+        <f>C6+C7+C8+C11+C14+C17+C20+C23</f>
         <v>26235</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:L6" si="0">D7+D8+D9+D12+D15+D18+D21+D24</f>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:L5" si="0">D6+D7+D8+D11+D14+D17+D20+D23</f>
         <v>19173</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>7957</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>2943</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>1774</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>3405</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>2364</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>18443</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>730</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>7062</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>604</v>
+      </c>
+      <c r="D6" s="3">
+        <v>576</v>
+      </c>
+      <c r="E6" s="3">
+        <v>256</v>
+      </c>
+      <c r="F6" s="3">
+        <v>107</v>
+      </c>
+      <c r="G6" s="3">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3">
+        <v>84</v>
+      </c>
+      <c r="I6" s="3">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3">
+        <v>541</v>
+      </c>
+      <c r="K6" s="3">
+        <v>35</v>
+      </c>
+      <c r="L6" s="3">
+        <v>28</v>
+      </c>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>604</v>
+        <v>2010</v>
       </c>
       <c r="D7" s="3">
-        <v>576</v>
+        <v>2009</v>
       </c>
       <c r="E7" s="3">
-        <v>256</v>
+        <v>770</v>
       </c>
       <c r="F7" s="3">
-        <v>107</v>
+        <v>503</v>
       </c>
       <c r="G7" s="3">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="H7" s="3">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="I7" s="3">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="J7" s="3">
-        <v>541</v>
+        <v>1951</v>
       </c>
       <c r="K7" s="3">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="L7" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
-        <v>2010</v>
+        <v>5537</v>
       </c>
       <c r="D8" s="3">
-        <v>2009</v>
+        <v>3903</v>
       </c>
       <c r="E8" s="3">
-        <v>770</v>
+        <v>1213</v>
       </c>
       <c r="F8" s="3">
-        <v>503</v>
+        <v>699</v>
       </c>
       <c r="G8" s="3">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="H8" s="3">
-        <v>273</v>
+        <v>971</v>
       </c>
       <c r="I8" s="3">
-        <v>234</v>
+        <v>585</v>
       </c>
       <c r="J8" s="3">
-        <v>1951</v>
+        <v>3796</v>
       </c>
       <c r="K8" s="3">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>1634</v>
       </c>
       <c r="M8" s="5"/>
     </row>
@@ -803,37 +840,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>753</v>
+      </c>
+      <c r="D9" s="3">
+        <v>752</v>
+      </c>
+      <c r="E9" s="3">
+        <v>224</v>
+      </c>
+      <c r="F9" s="3">
+        <v>173</v>
+      </c>
+      <c r="G9" s="3">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3">
+        <v>150</v>
+      </c>
+      <c r="I9" s="3">
+        <v>128</v>
+      </c>
+      <c r="J9" s="3">
+        <v>732</v>
+      </c>
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <v>5537</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3903</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1213</v>
-      </c>
-      <c r="F9" s="3">
-        <v>699</v>
-      </c>
-      <c r="G9" s="3">
-        <v>328</v>
-      </c>
-      <c r="H9" s="3">
-        <v>971</v>
-      </c>
-      <c r="I9" s="3">
-        <v>585</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3796</v>
-      </c>
-      <c r="K9" s="3">
-        <v>107</v>
-      </c>
       <c r="L9" s="3">
-        <v>1634</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5"/>
     </row>
@@ -842,76 +879,76 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>753</v>
+        <v>4784</v>
       </c>
       <c r="D10" s="3">
-        <v>752</v>
+        <v>3151</v>
       </c>
       <c r="E10" s="3">
-        <v>224</v>
+        <v>989</v>
       </c>
       <c r="F10" s="3">
-        <v>173</v>
+        <v>526</v>
       </c>
       <c r="G10" s="3">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="H10" s="3">
-        <v>150</v>
+        <v>821</v>
       </c>
       <c r="I10" s="3">
-        <v>128</v>
+        <v>457</v>
       </c>
       <c r="J10" s="3">
-        <v>732</v>
+        <v>3064</v>
       </c>
       <c r="K10" s="3">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="L10" s="3">
-        <v>1</v>
+        <v>1633</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
-        <v>4784</v>
+        <v>5936</v>
       </c>
       <c r="D11" s="3">
-        <v>3151</v>
+        <v>4286</v>
       </c>
       <c r="E11" s="3">
-        <v>989</v>
+        <v>1580</v>
       </c>
       <c r="F11" s="3">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G11" s="3">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="H11" s="3">
-        <v>821</v>
+        <v>934</v>
       </c>
       <c r="I11" s="3">
-        <v>457</v>
+        <v>818</v>
       </c>
       <c r="J11" s="3">
-        <v>3064</v>
+        <v>4105</v>
       </c>
       <c r="K11" s="3">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="L11" s="3">
-        <v>1633</v>
+        <v>1650</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -920,37 +957,37 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>5936</v>
+        <v>444</v>
       </c>
       <c r="D12" s="3">
-        <v>4286</v>
+        <v>443</v>
       </c>
       <c r="E12" s="3">
-        <v>1580</v>
+        <v>167</v>
       </c>
       <c r="F12" s="3">
-        <v>530</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3">
-        <v>934</v>
+        <v>94</v>
       </c>
       <c r="I12" s="3">
-        <v>818</v>
+        <v>93</v>
       </c>
       <c r="J12" s="3">
-        <v>4105</v>
+        <v>426</v>
       </c>
       <c r="K12" s="3">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="L12" s="3">
-        <v>1650</v>
+        <v>1</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -959,76 +996,76 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>444</v>
+        <v>5492</v>
       </c>
       <c r="D13" s="3">
-        <v>443</v>
+        <v>3843</v>
       </c>
       <c r="E13" s="3">
-        <v>167</v>
+        <v>1413</v>
       </c>
       <c r="F13" s="3">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="G13" s="3">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="H13" s="3">
-        <v>94</v>
+        <v>840</v>
       </c>
       <c r="I13" s="3">
-        <v>93</v>
+        <v>725</v>
       </c>
       <c r="J13" s="3">
-        <v>426</v>
+        <v>3679</v>
       </c>
       <c r="K13" s="3">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>1649</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
-        <v>5492</v>
+        <v>2305</v>
       </c>
       <c r="D14" s="3">
-        <v>3843</v>
+        <v>1714</v>
       </c>
       <c r="E14" s="3">
-        <v>1413</v>
+        <v>949</v>
       </c>
       <c r="F14" s="3">
-        <v>480</v>
+        <v>177</v>
       </c>
       <c r="G14" s="3">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="H14" s="3">
-        <v>840</v>
+        <v>215</v>
       </c>
       <c r="I14" s="3">
-        <v>725</v>
+        <v>151</v>
       </c>
       <c r="J14" s="3">
-        <v>3679</v>
+        <v>1621</v>
       </c>
       <c r="K14" s="3">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="L14" s="3">
-        <v>1649</v>
+        <v>591</v>
       </c>
       <c r="M14" s="5"/>
     </row>
@@ -1037,37 +1074,37 @@
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
-        <v>2305</v>
+        <v>129</v>
       </c>
       <c r="D15" s="3">
-        <v>1714</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3">
-        <v>949</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3">
-        <v>1621</v>
+        <v>124</v>
       </c>
       <c r="K15" s="3">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5"/>
     </row>
@@ -1076,76 +1113,76 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>129</v>
+        <v>2176</v>
       </c>
       <c r="D16" s="3">
-        <v>129</v>
+        <v>1585</v>
       </c>
       <c r="E16" s="3">
-        <v>63</v>
+        <v>886</v>
       </c>
       <c r="F16" s="3">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="H16" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="I16" s="3">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="J16" s="3">
-        <v>124</v>
+        <v>1497</v>
       </c>
       <c r="K16" s="3">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3">
-        <v>2176</v>
+        <v>3271</v>
       </c>
       <c r="D17" s="3">
-        <v>1585</v>
+        <v>2353</v>
       </c>
       <c r="E17" s="3">
-        <v>886</v>
+        <v>1035</v>
       </c>
       <c r="F17" s="3">
-        <v>163</v>
+        <v>362</v>
       </c>
       <c r="G17" s="3">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="I17" s="3">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="J17" s="3">
-        <v>1497</v>
+        <v>2259</v>
       </c>
       <c r="K17" s="3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L17" s="3">
-        <v>591</v>
+        <v>918</v>
       </c>
       <c r="M17" s="5"/>
     </row>
@@ -1154,37 +1191,37 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3">
-        <v>3271</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3">
-        <v>2353</v>
+        <v>212</v>
       </c>
       <c r="E18" s="3">
-        <v>1035</v>
+        <v>94</v>
       </c>
       <c r="F18" s="3">
-        <v>362</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="I18" s="3">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3">
-        <v>2259</v>
+        <v>202</v>
       </c>
       <c r="K18" s="3">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="L18" s="3">
-        <v>918</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5"/>
     </row>
@@ -1193,76 +1230,76 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
+        <v>3058</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2141</v>
+      </c>
+      <c r="E19" s="3">
+        <v>941</v>
+      </c>
+      <c r="F19" s="3">
+        <v>325</v>
+      </c>
+      <c r="G19" s="3">
         <v>213</v>
       </c>
-      <c r="D19" s="3">
-        <v>212</v>
-      </c>
-      <c r="E19" s="3">
-        <v>94</v>
-      </c>
-      <c r="F19" s="3">
-        <v>37</v>
-      </c>
-      <c r="G19" s="3">
-        <v>12</v>
-      </c>
       <c r="H19" s="3">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="I19" s="3">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="J19" s="3">
-        <v>202</v>
+        <v>2057</v>
       </c>
       <c r="K19" s="3">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="L19" s="3">
-        <v>1</v>
+        <v>917</v>
       </c>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3">
-        <v>3058</v>
+        <v>6572</v>
       </c>
       <c r="D20" s="3">
-        <v>2141</v>
+        <v>4321</v>
       </c>
       <c r="E20" s="3">
-        <v>941</v>
+        <v>2151</v>
       </c>
       <c r="F20" s="3">
-        <v>325</v>
+        <v>561</v>
       </c>
       <c r="G20" s="3">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="H20" s="3">
-        <v>353</v>
+        <v>533</v>
       </c>
       <c r="I20" s="3">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="J20" s="3">
-        <v>2057</v>
+        <v>4159</v>
       </c>
       <c r="K20" s="3">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="L20" s="3">
-        <v>917</v>
+        <v>2251</v>
       </c>
       <c r="M20" s="5"/>
     </row>
@@ -1271,37 +1308,37 @@
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
-        <v>6572</v>
+        <v>706</v>
       </c>
       <c r="D21" s="3">
-        <v>4321</v>
+        <v>701</v>
       </c>
       <c r="E21" s="3">
-        <v>2151</v>
+        <v>332</v>
       </c>
       <c r="F21" s="3">
-        <v>561</v>
+        <v>116</v>
       </c>
       <c r="G21" s="3">
-        <v>621</v>
+        <v>74</v>
       </c>
       <c r="H21" s="3">
-        <v>533</v>
+        <v>93</v>
       </c>
       <c r="I21" s="3">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="J21" s="3">
-        <v>4159</v>
+        <v>668</v>
       </c>
       <c r="K21" s="3">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="L21" s="3">
-        <v>2251</v>
+        <v>5</v>
       </c>
       <c r="M21" s="5"/>
     </row>
@@ -1310,143 +1347,103 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>706</v>
+        <v>5866</v>
       </c>
       <c r="D22" s="3">
-        <v>701</v>
+        <v>3620</v>
       </c>
       <c r="E22" s="3">
-        <v>332</v>
+        <v>1819</v>
       </c>
       <c r="F22" s="3">
-        <v>116</v>
+        <v>445</v>
       </c>
       <c r="G22" s="3">
-        <v>74</v>
+        <v>547</v>
       </c>
       <c r="H22" s="3">
-        <v>93</v>
+        <v>440</v>
       </c>
       <c r="I22" s="3">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="J22" s="3">
-        <v>668</v>
+        <v>3491</v>
       </c>
       <c r="K22" s="3">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="L22" s="3">
-        <v>5</v>
+        <v>2246</v>
       </c>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3">
-        <v>5866</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>3620</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3">
-        <v>1819</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>445</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>3491</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>2246</v>
+        <v>-11</v>
       </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-11</v>
-      </c>
-      <c r="M24" s="5"/>
-    </row>
+    <row r="24" spans="1:13" ht="16.5" customHeight="1"/>
     <row r="25" spans="1:13" ht="16.5" customHeight="1"/>
     <row r="26" spans="1:13" ht="16.5" customHeight="1"/>
     <row r="27" spans="1:13" ht="16.5" customHeight="1"/>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>